--- a/ExcelConfig/battleLevel.xlsx
+++ b/ExcelConfig/battleLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="20080" windowHeight="12860" activeTab="1"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="20080" windowHeight="12860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,10 @@
     <rPh sb="0" eb="1">
       <t>guai wu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
@@ -1413,7 +1417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1530,11 +1534,11 @@
       <c r="E4" s="2">
         <v>-1</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
         <v>50</v>
@@ -1556,9 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/battleLevel.xlsx
+++ b/ExcelConfig/battleLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="20080" windowHeight="12860" activeTab="3"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="20080" windowHeight="12860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,14 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50|50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,6 +610,53 @@
   </si>
   <si>
     <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图1BOSS掉落</t>
+    <rPh sb="0" eb="1">
+      <t>di tu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>diao luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>5|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落数</t>
+    <rPh sb="0" eb="1">
+      <t>diao luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1113,30 +1152,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1149,9 +1188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1175,31 +1214,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -1228,13 +1267,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1248,28 +1287,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1277,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1309,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -1341,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="10">
         <v>3</v>
@@ -1373,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="10">
         <v>4</v>
@@ -1417,7 +1456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1574,7 @@
         <v>-1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
@@ -1560,9 +1599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>30</v>
@@ -1640,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1669,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
@@ -1695,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1746,44 +1785,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1797,63 +1839,95 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4">
+        <v>97</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:N2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/battleLevel.xlsx
+++ b/ExcelConfig/battleLevel.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="MonsterData" sheetId="6" r:id="rId2"/>
-    <sheet name="BattleLevelData" sheetId="1" r:id="rId3"/>
+    <sheet name="BattleLevelData" sheetId="1" r:id="rId2"/>
+    <sheet name="MonsterData" sheetId="6" r:id="rId3"/>
     <sheet name="MonsterGroupData" sheetId="3" r:id="rId4"/>
     <sheet name="DropGroupData" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,20 @@
   </si>
   <si>
     <t>1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大玩家数</t>
+    <rPh sb="0" eb="1">
+      <t>zui da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan jia shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,11 +1200,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+      <formula1>"String,Int,DateTime,Float"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1447,151 +1619,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
-      <formula1>"String,Int,DateTime,Float"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ExcelConfig/battleLevel.xlsx
+++ b/ExcelConfig/battleLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="20080" windowHeight="12860" activeTab="1"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="20080" windowHeight="12860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50|50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地图1BOSS掉落</t>
     <rPh sb="0" eb="1">
       <t>di tu</t>
@@ -671,6 +663,31 @@
     <rPh sb="2" eb="3">
       <t>wan jia shu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死获得经验</t>
+    <rPh sb="0" eb="1">
+      <t>sha si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|50|50|100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,13 +1169,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1166,30 +1183,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
@@ -1236,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1300,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -1335,7 +1352,7 @@
         <v>-1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -1358,27 +1375,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="10"/>
     <col min="3" max="3" width="19.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="10"/>
-    <col min="7" max="7" width="11.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
-    <col min="9" max="9" width="9.6640625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="10"/>
+    <col min="4" max="5" width="17" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="10"/>
+    <col min="8" max="8" width="11.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="10"/>
+    <col min="10" max="10" width="9.6640625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1386,34 +1403,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1439,16 +1459,19 @@
         <v>6</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1459,46 +1482,49 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
       <c r="G4" s="10">
         <v>0</v>
       </c>
@@ -1514,23 +1540,26 @@
       <c r="K4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
       </c>
       <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
@@ -1546,23 +1575,26 @@
       <c r="K5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
@@ -1578,23 +1610,26 @@
       <c r="K6" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>4</v>
       </c>
       <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
@@ -1608,13 +1643,16 @@
         <v>0</v>
       </c>
       <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1628,7 +1666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>30</v>
@@ -1706,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1735,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
@@ -1761,16 +1799,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1828,28 +1866,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1866,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -1880,28 +1918,28 @@
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1910,16 +1948,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1933,16 +1971,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>2000</v>
